--- a/proj_1/data/lfsr.xlsx
+++ b/proj_1/data/lfsr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADICD_lab\proj_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500E5AB-8050-451D-A802-487E900D82EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705ADAA1-78E9-4813-91B0-A7587412E4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3432" yWindow="4176" windowWidth="23040" windowHeight="10692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5832" yWindow="2340" windowWidth="23040" windowHeight="10692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>FF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,23 +35,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vdd_design（W）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T（°C）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>temp（n）</t>
+    <t>24T_CSFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vdd_clk（W）</t>
+    <t>temp（ns）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24T_CSFF</t>
+    <t>p_vdd_design（W）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vdd_design（v）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_vdd_clk（W）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26T_SCDFF初始状态不同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,16 +85,63 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -94,27 +149,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,217 +563,595 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="22.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
         <v>500</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="5">
         <v>3.2309999999999997E-7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="5">
         <v>1.9889999999999999E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1">
+      <c r="B3" s="8"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
         <v>35</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="5">
         <v>3.2399999999999999E-7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="5">
         <v>1.9969999999999999E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1">
+      <c r="B4" s="8"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4">
         <v>70</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="5">
         <v>3.3130000000000001E-7</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="5">
         <v>2.0100000000000001E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="4">
+      <c r="B5" s="8"/>
+      <c r="C5" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.8210000000000002E-7</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2.029E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5">
+        <v>2.3830000000000001E-7</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.9600000000000001E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5">
+        <v>2.0109999999999999E-7</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.9289999999999999E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5">
+        <v>1.7840000000000001E-7</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.977E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5">
+        <v>1.4399999999999999E-7</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2.1759999999999999E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5">
+        <v>1.171E-7</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3.1689999999999999E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="5">
+        <v>9.4059999999999997E-8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>7.441E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6">
         <v>4000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C12" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="4">
         <v>35</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E12" s="5">
         <v>3.671E-7</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F12" s="5">
         <v>2.0249999999999999E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
         <v>500</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C13" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="11">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E13" s="12">
         <v>1.306E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F13" s="12">
         <v>2.2700000000000001E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11">
         <v>35</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E14" s="12">
         <v>1.399E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F14" s="12">
         <v>2.276E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11">
         <v>70</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E15" s="12">
         <v>1.49E-5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F15" s="12">
         <v>2.2880000000000001E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="10">
+        <v>35</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1.029E-5</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2.2359999999999999E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12">
+        <v>7.1189999999999999E-6</v>
+      </c>
+      <c r="F17" s="12">
+        <v>2.2170000000000001E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12">
+        <v>4.5009999999999998E-6</v>
+      </c>
+      <c r="F18" s="12">
+        <v>2.206E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="12">
+        <v>2.4820000000000001E-6</v>
+      </c>
+      <c r="F19" s="12">
+        <v>2.2259999999999999E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12">
+        <v>1.1119999999999999E-6</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2.431E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="12">
+        <v>3.8589999999999998E-7</v>
+      </c>
+      <c r="F21" s="12">
+        <v>3.4210000000000003E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="12">
+        <v>1.189E-7</v>
+      </c>
+      <c r="F22" s="12">
+        <v>7.6619999999999997E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11">
         <v>4000</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C23" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="11">
         <v>35</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E23" s="12">
         <v>1.7220000000000001E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F23" s="12">
         <v>2.2919999999999999E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+    <row r="24" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="22">
+        <v>500</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>2.1619999999999999E-7</v>
+      </c>
+      <c r="F24" s="16">
+        <v>2.3809999999999999E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15">
+        <v>35</v>
+      </c>
+      <c r="E25" s="16">
+        <v>8.0760000000000003E-8</v>
+      </c>
+      <c r="F25" s="16">
+        <v>2.367E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15">
+        <v>70</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1.009E-7</v>
+      </c>
+      <c r="F26" s="16">
+        <v>2.4320000000000001E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="D27" s="22">
+        <v>35</v>
+      </c>
+      <c r="E27" s="16">
+        <v>8.2490000000000006E-8</v>
+      </c>
+      <c r="F27" s="16">
+        <v>2.41E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="19">
+        <v>0.65</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="16">
+        <v>6.9279999999999996E-8</v>
+      </c>
+      <c r="F28" s="16">
+        <v>2.4079999999999999E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="16">
+        <v>5.9130000000000001E-8</v>
+      </c>
+      <c r="F29" s="16">
+        <v>2.343E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="16">
+        <v>4.9889999999999999E-8</v>
+      </c>
+      <c r="F30" s="16">
+        <v>2.3980000000000002E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="16">
+        <v>4.0949999999999999E-8</v>
+      </c>
+      <c r="F31" s="16">
+        <v>2.607E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="16">
+        <v>3.5299999999999998E-8</v>
+      </c>
+      <c r="F32" s="16">
+        <v>3.6399999999999998E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="16">
+        <v>2.6969999999999999E-8</v>
+      </c>
+      <c r="F33" s="16">
+        <v>7.836E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="15">
+        <v>4000</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D34" s="15">
+        <v>35</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1.6929999999999999E-7</v>
+      </c>
+      <c r="F34" s="16">
+        <v>2.3410000000000001E-7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A2:A5"/>
+  <mergeCells count="12">
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/proj_1/data/lfsr.xlsx
+++ b/proj_1/data/lfsr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADICD_lab\proj_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705ADAA1-78E9-4813-91B0-A7587412E4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7947D24D-42D6-4914-9204-09E33ACFA141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5832" yWindow="2340" windowWidth="23040" windowHeight="10692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,7 +59,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26T_SCDFF初始状态不同</t>
+    <t>26T_SCDFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26T_REFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,13 +134,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,9 +227,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -228,6 +235,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -237,41 +265,35 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,10 +585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -580,566 +603,1071 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="13">
         <v>500</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="16">
         <v>0.75</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>3.2309999999999997E-7</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>1.9889999999999999E-7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4">
+      <c r="A3" s="16"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="3">
         <v>35</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>3.2399999999999999E-7</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>1.9969999999999999E-7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="3">
         <v>70</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>3.3130000000000001E-7</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>2.0100000000000001E-7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="5">
         <v>0.7</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="13">
         <v>35</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>2.8210000000000002E-7</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>2.029E-7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="5">
         <v>0.65</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5">
+      <c r="D6" s="14"/>
+      <c r="E6" s="4">
         <v>2.3830000000000001E-7</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1.9600000000000001E-7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="5">
         <v>0.6</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5">
+      <c r="D7" s="14"/>
+      <c r="E7" s="4">
         <v>2.0109999999999999E-7</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>1.9289999999999999E-7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5">
+      <c r="D8" s="14"/>
+      <c r="E8" s="4">
         <v>1.7840000000000001E-7</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>1.977E-7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6">
+      <c r="A9" s="16"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="5">
         <v>0.5</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="5">
+      <c r="D9" s="14"/>
+      <c r="E9" s="4">
         <v>1.4399999999999999E-7</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>2.1759999999999999E-7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="5">
         <v>0.45</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="5">
+      <c r="D10" s="14"/>
+      <c r="E10" s="4">
         <v>1.171E-7</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>3.1689999999999999E-7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6">
+      <c r="A11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="5">
         <v>0.4</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="5">
+      <c r="D11" s="15"/>
+      <c r="E11" s="4">
         <v>9.4059999999999997E-8</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>7.441E-7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6">
+      <c r="A12" s="16"/>
+      <c r="B12" s="5">
         <v>4000</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>0.75</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>35</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>3.671E-7</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>2.0249999999999999E-7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="12">
         <v>500</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="12">
         <v>0.75</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <v>1.306E-5</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="7">
         <v>2.2700000000000001E-7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="6">
         <v>35</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="7">
         <v>1.399E-5</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="7">
         <v>2.276E-7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="6">
         <v>70</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="7">
         <v>1.49E-5</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="7">
         <v>2.2880000000000001E-7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="13">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="8">
         <v>0.7</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="12">
         <v>35</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="7">
         <v>1.029E-5</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="7">
         <v>2.2359999999999999E-7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="13">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="8">
         <v>0.65</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="12">
+      <c r="D17" s="12"/>
+      <c r="E17" s="7">
         <v>7.1189999999999999E-6</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="7">
         <v>2.2170000000000001E-7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="13">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="8">
         <v>0.6</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12">
+      <c r="D18" s="12"/>
+      <c r="E18" s="7">
         <v>4.5009999999999998E-6</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="7">
         <v>2.206E-7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="13">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="12">
+      <c r="D19" s="12"/>
+      <c r="E19" s="7">
         <v>2.4820000000000001E-6</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="7">
         <v>2.2259999999999999E-7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="13">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="8">
         <v>0.5</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12">
+      <c r="D20" s="12"/>
+      <c r="E20" s="7">
         <v>1.1119999999999999E-6</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="7">
         <v>2.431E-7</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="13">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="8">
         <v>0.45</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12">
+      <c r="D21" s="12"/>
+      <c r="E21" s="7">
         <v>3.8589999999999998E-7</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="7">
         <v>3.4210000000000003E-7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="13">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="8">
         <v>0.4</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12">
+      <c r="D22" s="12"/>
+      <c r="E22" s="7">
         <v>1.189E-7</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="7">
         <v>7.6619999999999997E-7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11">
+      <c r="A23" s="12"/>
+      <c r="B23" s="6">
         <v>4000</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="8">
         <v>0.75</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="6">
         <v>35</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="7">
         <v>1.7220000000000001E-5</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="7">
         <v>2.2919999999999999E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="19">
         <v>500</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="20">
         <v>0.75</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="21">
         <v>0</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="22">
         <v>2.1619999999999999E-7</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="22">
         <v>2.3809999999999999E-7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15">
+      <c r="C25" s="20"/>
+      <c r="D25" s="21">
         <v>35</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="22">
         <v>8.0760000000000003E-8</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="22">
         <v>2.367E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15">
+      <c r="C26" s="20"/>
+      <c r="D26" s="21">
         <v>70</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="22">
         <v>1.009E-7</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="22">
         <v>2.4320000000000001E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="19">
+      <c r="C27" s="24">
         <v>0.7</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="19">
         <v>35</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="22">
         <v>8.2490000000000006E-8</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="22">
         <v>2.41E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="19">
+      <c r="C28" s="24">
         <v>0.65</v>
       </c>
       <c r="D28" s="23"/>
-      <c r="E28" s="16">
+      <c r="E28" s="22">
         <v>6.9279999999999996E-8</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="22">
         <v>2.4079999999999999E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="19">
+      <c r="C29" s="24">
         <v>0.6</v>
       </c>
       <c r="D29" s="23"/>
-      <c r="E29" s="16">
+      <c r="E29" s="22">
         <v>5.9130000000000001E-8</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="22">
         <v>2.343E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="19">
+      <c r="C30" s="24">
         <v>0.55000000000000004</v>
       </c>
       <c r="D30" s="23"/>
-      <c r="E30" s="16">
+      <c r="E30" s="22">
         <v>4.9889999999999999E-8</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="22">
         <v>2.3980000000000002E-7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="19">
+      <c r="C31" s="24">
         <v>0.5</v>
       </c>
       <c r="D31" s="23"/>
-      <c r="E31" s="16">
+      <c r="E31" s="22">
         <v>4.0949999999999999E-8</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="22">
         <v>2.607E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="23"/>
-      <c r="C32" s="19">
+      <c r="C32" s="24">
         <v>0.45</v>
       </c>
       <c r="D32" s="23"/>
-      <c r="E32" s="16">
+      <c r="E32" s="22">
         <v>3.5299999999999998E-8</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="22">
         <v>3.6399999999999998E-7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="19">
+      <c r="B33" s="25"/>
+      <c r="C33" s="24">
         <v>0.4</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="16">
+      <c r="D33" s="25"/>
+      <c r="E33" s="22">
         <v>2.6969999999999999E-8</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="22">
         <v>7.836E-7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="15">
+      <c r="B34" s="21">
         <v>4000</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="21">
         <v>0.75</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="21">
         <v>35</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="22">
         <v>1.6929999999999999E-7</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="22">
         <v>2.3410000000000001E-7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+    <row r="35" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="26">
+        <v>500</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <v>2.023E-7</v>
+      </c>
+      <c r="F35" s="11">
+        <v>2.1829999999999999E-7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="10">
+        <v>35</v>
+      </c>
+      <c r="E36" s="11">
+        <v>3.2819999999999999E-7</v>
+      </c>
+      <c r="F36" s="11">
+        <v>2.199E-7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="10">
+        <v>70</v>
+      </c>
+      <c r="E37" s="11">
+        <v>1.057E-7</v>
+      </c>
+      <c r="F37" s="11">
+        <v>2.198E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="D38" s="26">
+        <v>35</v>
+      </c>
+      <c r="E38" s="11">
+        <v>1.522E-7</v>
+      </c>
+      <c r="F38" s="11">
+        <v>2.178E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="11">
+        <v>1.5510000000000001E-7</v>
+      </c>
+      <c r="F39" s="11">
+        <v>2.125E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="11">
+        <v>6.0399999999999998E-8</v>
+      </c>
+      <c r="F40" s="11">
+        <v>2.128E-7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="11">
+        <v>1.098E-7</v>
+      </c>
+      <c r="F41" s="11">
+        <v>2.1650000000000001E-7</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="2">
+        <v>9.8490000000000004E-8</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2.4089999999999999E-7</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="2">
+        <v>3.3010000000000002E-8</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3.3770000000000001E-7</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="2">
+        <v>4.3000000000000001E-8</v>
+      </c>
+      <c r="F44" s="2">
+        <v>7.5840000000000001E-7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="1">
+        <v>35</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2.206E-7</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2.2249999999999999E-7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B44"/>
     <mergeCell ref="D27:D33"/>
     <mergeCell ref="B24:B33"/>
     <mergeCell ref="B13:B22"/>
@@ -1149,9 +1677,6 @@
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/proj_1/data/lfsr.xlsx
+++ b/proj_1/data/lfsr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADICD_lab\proj_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7947D24D-42D6-4914-9204-09E33ACFA141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B928EC73-C9D8-4EE5-97A9-AF274CFE5E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>FF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>26T_REFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26T_TSPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,21 +260,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,36 +267,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,9 +615,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -624,13 +652,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="22">
         <v>500</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="18">
         <v>0.75</v>
       </c>
       <c r="D2" s="3">
@@ -644,9 +672,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3">
         <v>35</v>
       </c>
@@ -658,9 +686,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="3">
         <v>70</v>
       </c>
@@ -672,12 +700,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="5">
         <v>0.7</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="22">
         <v>35</v>
       </c>
       <c r="E5" s="4">
@@ -688,12 +716,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="5">
         <v>0.65</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="4">
         <v>2.3830000000000001E-7</v>
       </c>
@@ -702,12 +730,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="5">
         <v>0.6</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="4">
         <v>2.0109999999999999E-7</v>
       </c>
@@ -716,12 +744,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="4">
         <v>1.7840000000000001E-7</v>
       </c>
@@ -730,12 +758,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="5">
         <v>0.5</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="4">
         <v>1.4399999999999999E-7</v>
       </c>
@@ -744,12 +772,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5">
         <v>0.45</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="4">
         <v>1.171E-7</v>
       </c>
@@ -758,12 +786,12 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="5">
         <v>0.4</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="4">
         <v>9.4059999999999997E-8</v>
       </c>
@@ -772,16 +800,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="5">
         <v>4000</v>
       </c>
       <c r="C12" s="5">
         <v>0.75</v>
       </c>
-      <c r="D12" s="3">
-        <v>35</v>
-      </c>
+      <c r="D12" s="24"/>
       <c r="E12" s="4">
         <v>3.671E-7</v>
       </c>
@@ -790,13 +816,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="17">
         <v>500</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="17">
         <v>0.75</v>
       </c>
       <c r="D13" s="6">
@@ -810,9 +836,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="6">
         <v>35</v>
       </c>
@@ -824,9 +850,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="6">
         <v>70</v>
       </c>
@@ -838,12 +864,12 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="8">
         <v>0.7</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="32">
         <v>35</v>
       </c>
       <c r="E16" s="7">
@@ -854,12 +880,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="8">
         <v>0.65</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="7">
         <v>7.1189999999999999E-6</v>
       </c>
@@ -868,12 +894,12 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="8">
         <v>0.6</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="7">
         <v>4.5009999999999998E-6</v>
       </c>
@@ -882,12 +908,12 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="7">
         <v>2.4820000000000001E-6</v>
       </c>
@@ -896,12 +922,12 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="8">
         <v>0.5</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="7">
         <v>1.1119999999999999E-6</v>
       </c>
@@ -910,12 +936,12 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="8">
         <v>0.45</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="7">
         <v>3.8589999999999998E-7</v>
       </c>
@@ -924,12 +950,12 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="8">
         <v>0.4</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="7">
         <v>1.189E-7</v>
       </c>
@@ -938,16 +964,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="6">
         <v>4000</v>
       </c>
       <c r="C23" s="8">
         <v>0.75</v>
       </c>
-      <c r="D23" s="6">
-        <v>35</v>
-      </c>
+      <c r="D23" s="34"/>
       <c r="E23" s="7">
         <v>1.7220000000000001E-5</v>
       </c>
@@ -955,169 +979,167 @@
         <v>2.2919999999999999E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="19">
         <v>500</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="25">
         <v>0.75</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="13">
         <v>0</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="14">
         <v>2.1619999999999999E-7</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="14">
         <v>2.3809999999999999E-7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21">
+    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="13">
         <v>35</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="14">
         <v>8.0760000000000003E-8</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="14">
         <v>2.367E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21">
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="13">
         <v>70</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="14">
         <v>1.009E-7</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="14">
         <v>2.4320000000000001E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24">
+    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="15">
         <v>0.7</v>
       </c>
       <c r="D27" s="19">
         <v>35</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="14">
         <v>8.2490000000000006E-8</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="14">
         <v>2.41E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24">
+    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="15">
         <v>0.65</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22">
+      <c r="D28" s="20"/>
+      <c r="E28" s="14">
         <v>6.9279999999999996E-8</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="14">
         <v>2.4079999999999999E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="15">
         <v>0.6</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="22">
+      <c r="D29" s="20"/>
+      <c r="E29" s="14">
         <v>5.9130000000000001E-8</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="14">
         <v>2.343E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24">
+    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="22">
+      <c r="D30" s="20"/>
+      <c r="E30" s="14">
         <v>4.9889999999999999E-8</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="14">
         <v>2.3980000000000002E-7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24">
+    <row r="31" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="15">
         <v>0.5</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="22">
+      <c r="D31" s="20"/>
+      <c r="E31" s="14">
         <v>4.0949999999999999E-8</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="14">
         <v>2.607E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24">
+    <row r="32" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="15">
         <v>0.45</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="22">
+      <c r="D32" s="20"/>
+      <c r="E32" s="14">
         <v>3.5299999999999998E-8</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="14">
         <v>3.6399999999999998E-7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="24">
+    <row r="33" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="15">
         <v>0.4</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="22">
+      <c r="D33" s="20"/>
+      <c r="E33" s="14">
         <v>2.6969999999999999E-8</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="14">
         <v>7.836E-7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="21">
+    <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="13">
         <v>4000</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="13">
         <v>0.75</v>
       </c>
-      <c r="D34" s="21">
-        <v>35</v>
-      </c>
-      <c r="E34" s="22">
+      <c r="D34" s="21"/>
+      <c r="E34" s="14">
         <v>1.6929999999999999E-7</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="14">
         <v>2.3410000000000001E-7</v>
       </c>
     </row>
@@ -1131,235 +1153,353 @@
       <c r="C35" s="26">
         <v>0.75</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="27">
         <v>0</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="28">
         <v>2.023E-7</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="28">
         <v>2.1829999999999999E-7</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="10">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="27">
         <v>35</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="28">
         <v>3.2819999999999999E-7</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="28">
         <v>2.199E-7</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="10">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="27">
         <v>70</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="28">
         <v>1.057E-7</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="28">
         <v>2.198E-7</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="24">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="31">
         <v>0.7</v>
       </c>
       <c r="D38" s="26">
         <v>35</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="28">
         <v>1.522E-7</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="28">
         <v>2.178E-7</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="24">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="31">
         <v>0.65</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="11">
+      <c r="D39" s="29"/>
+      <c r="E39" s="28">
         <v>1.5510000000000001E-7</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="28">
         <v>2.125E-7</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="24">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="31">
         <v>0.6</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="11">
+      <c r="D40" s="29"/>
+      <c r="E40" s="28">
         <v>6.0399999999999998E-8</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="28">
         <v>2.128E-7</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="24">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="31">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="11">
+      <c r="D41" s="29"/>
+      <c r="E41" s="28">
         <v>1.098E-7</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="28">
         <v>2.1650000000000001E-7</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="24">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="31">
         <v>0.5</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="2">
+      <c r="D42" s="29"/>
+      <c r="E42" s="28">
         <v>9.8490000000000004E-8</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="28">
         <v>2.4089999999999999E-7</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="24">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="31">
         <v>0.45</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="2">
+      <c r="D43" s="29"/>
+      <c r="E43" s="28">
         <v>3.3010000000000002E-8</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="28">
         <v>3.3770000000000001E-7</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="24">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="31">
         <v>0.4</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="2">
+      <c r="D44" s="29"/>
+      <c r="E44" s="28">
         <v>4.3000000000000001E-8</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="28">
         <v>7.5840000000000001E-7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="1">
+      <c r="A45" s="30"/>
+      <c r="B45" s="27">
         <v>4000</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="27">
         <v>0.75</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="30"/>
+      <c r="E45" s="28">
+        <v>2.206E-7</v>
+      </c>
+      <c r="F45" s="28">
+        <v>2.2249999999999999E-7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="22">
+        <v>500</v>
+      </c>
+      <c r="C46" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1.001E-7</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2.3309999999999999E-7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="3">
         <v>35</v>
       </c>
-      <c r="E45" s="2">
-        <v>2.206E-7</v>
-      </c>
-      <c r="F45" s="2">
-        <v>2.2249999999999999E-7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="E47" s="4">
+        <v>1.044E-7</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2.346E-7</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="3">
+        <v>70</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1.0949999999999999E-7</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2.3629999999999999E-7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="D49" s="22">
+        <v>35</v>
+      </c>
+      <c r="E49" s="4">
+        <v>8.7680000000000002E-8</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2.3239999999999999E-7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="4">
+        <v>7.5020000000000006E-8</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2.3099999999999999E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="4">
+        <v>6.3969999999999996E-8</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2.2999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="4">
+        <v>5.4179999999999999E-8</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2.3169999999999999E-7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="4">
+        <v>4.3859999999999997E-8</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2.5349999999999999E-7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="4">
+        <v>3.7009999999999999E-8</v>
+      </c>
+      <c r="F54" s="4">
+        <v>3.5349999999999998E-7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="4">
+        <v>3.0990000000000002E-8</v>
+      </c>
+      <c r="F55" s="4">
+        <v>7.7400000000000002E-7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="4">
+        <v>2.2499999999999999E-7</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2.3839999999999999E-7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
@@ -1660,19 +1800,23 @@
       <c r="F138" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D38:D44"/>
+  <mergeCells count="20">
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="D49:D56"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B46:B55"/>
+    <mergeCell ref="A46:A56"/>
     <mergeCell ref="A35:A45"/>
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="A13:A23"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="B35:B44"/>
-    <mergeCell ref="D27:D33"/>
     <mergeCell ref="B24:B33"/>
     <mergeCell ref="B13:B22"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="D5:D11"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C13:C15"/>

--- a/proj_1/data/lfsr.xlsx
+++ b/proj_1/data/lfsr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADICD_lab\proj_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B928EC73-C9D8-4EE5-97A9-AF274CFE5E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434525E9-3779-43D8-A162-111630A551E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>FF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,9 @@
   <si>
     <t>26T_TSPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18TSPC</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,37 +278,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
@@ -317,10 +293,34 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -331,6 +331,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -613,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -652,13 +670,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="28">
         <v>500</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="35">
         <v>0.75</v>
       </c>
       <c r="D2" s="3">
@@ -672,9 +690,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="3">
         <v>35</v>
       </c>
@@ -686,9 +704,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="18"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="3">
         <v>70</v>
       </c>
@@ -700,12 +718,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="5">
         <v>0.7</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="28">
         <v>35</v>
       </c>
       <c r="E5" s="4">
@@ -716,12 +734,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="5">
         <v>0.65</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4">
         <v>2.3830000000000001E-7</v>
       </c>
@@ -730,12 +748,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="5">
         <v>0.6</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="4">
         <v>2.0109999999999999E-7</v>
       </c>
@@ -744,12 +762,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="4">
         <v>1.7840000000000001E-7</v>
       </c>
@@ -758,12 +776,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="5">
         <v>0.5</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="4">
         <v>1.4399999999999999E-7</v>
       </c>
@@ -772,12 +790,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="5">
         <v>0.45</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="4">
         <v>1.171E-7</v>
       </c>
@@ -786,12 +804,12 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="5">
         <v>0.4</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="4">
         <v>9.4059999999999997E-8</v>
       </c>
@@ -800,14 +818,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="5">
         <v>4000</v>
       </c>
       <c r="C12" s="5">
         <v>0.75</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="4">
         <v>3.671E-7</v>
       </c>
@@ -816,754 +834,946 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="17">
+        <v>20480</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="4">
+        <v>1.2980000000000001E-7</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3.1899999999999998E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B14" s="34">
         <v>500</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C14" s="34">
         <v>0.75</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>1.306E-5</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>2.2700000000000001E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="6">
         <v>35</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="7">
         <v>1.399E-5</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="7">
         <v>2.276E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="6">
         <v>70</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="7">
         <v>1.49E-5</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="7">
         <v>2.2880000000000001E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="8">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="8">
         <v>0.7</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D17" s="31">
         <v>35</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="7">
         <v>1.029E-5</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="7">
         <v>2.2359999999999999E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="8">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="8">
         <v>0.65</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="7">
+      <c r="D18" s="32"/>
+      <c r="E18" s="7">
         <v>7.1189999999999999E-6</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="7">
         <v>2.2170000000000001E-7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="8">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="8">
         <v>0.6</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="7">
+      <c r="D19" s="32"/>
+      <c r="E19" s="7">
         <v>4.5009999999999998E-6</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <v>2.206E-7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="8">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="7">
+      <c r="D20" s="32"/>
+      <c r="E20" s="7">
         <v>2.4820000000000001E-6</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F20" s="7">
         <v>2.2259999999999999E-7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="8">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="8">
         <v>0.5</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="7">
+      <c r="D21" s="32"/>
+      <c r="E21" s="7">
         <v>1.1119999999999999E-6</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="7">
         <v>2.431E-7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="8">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="8">
         <v>0.45</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="7">
+      <c r="D22" s="32"/>
+      <c r="E22" s="7">
         <v>3.8589999999999998E-7</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="7">
         <v>3.4210000000000003E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="8">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="8">
         <v>0.4</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="7">
+      <c r="D23" s="32"/>
+      <c r="E23" s="7">
         <v>1.189E-7</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <v>7.6619999999999997E-7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="6">
         <v>4000</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C24" s="8">
         <v>0.75</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="7">
+      <c r="D24" s="32"/>
+      <c r="E24" s="7">
         <v>1.7220000000000001E-5</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="7">
         <v>2.2919999999999999E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="6">
+        <v>20480</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="7">
+        <v>4.7399999999999998E-7</v>
+      </c>
+      <c r="F25" s="7">
+        <v>3.5040000000000001E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B26" s="22">
         <v>500</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C26" s="36">
         <v>0.75</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D26" s="13">
         <v>0</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E26" s="14">
         <v>2.1619999999999999E-7</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F26" s="14">
         <v>2.3809999999999999E-7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="13">
+    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="13">
         <v>35</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E27" s="14">
         <v>8.0760000000000003E-8</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F27" s="14">
         <v>2.367E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="13">
+    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="13">
         <v>70</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E28" s="14">
         <v>1.009E-7</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F28" s="14">
         <v>2.4320000000000001E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="15">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="15">
         <v>0.7</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D29" s="22">
         <v>35</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E29" s="14">
         <v>8.2490000000000006E-8</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F29" s="14">
         <v>2.41E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="15">
+    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="15">
         <v>0.65</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="14">
+      <c r="D30" s="23"/>
+      <c r="E30" s="14">
         <v>6.9279999999999996E-8</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F30" s="14">
         <v>2.4079999999999999E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="15">
+    <row r="31" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="15">
         <v>0.6</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="14">
+      <c r="D31" s="23"/>
+      <c r="E31" s="14">
         <v>5.9130000000000001E-8</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F31" s="14">
         <v>2.343E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="15">
+    <row r="32" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="14">
+      <c r="D32" s="23"/>
+      <c r="E32" s="14">
         <v>4.9889999999999999E-8</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F32" s="14">
         <v>2.3980000000000002E-7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="15">
+    <row r="33" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="15">
         <v>0.5</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="14">
+      <c r="D33" s="23"/>
+      <c r="E33" s="14">
         <v>4.0949999999999999E-8</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F33" s="14">
         <v>2.607E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="15">
+    <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="15">
         <v>0.45</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="14">
+      <c r="D34" s="23"/>
+      <c r="E34" s="14">
         <v>3.5299999999999998E-8</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F34" s="14">
         <v>3.6399999999999998E-7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="15">
+    <row r="35" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="15">
         <v>0.4</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="14">
+      <c r="D35" s="23"/>
+      <c r="E35" s="14">
         <v>2.6969999999999999E-8</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F35" s="14">
         <v>7.836E-7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="13">
+    <row r="36" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="13">
         <v>4000</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C36" s="13">
         <v>0.75</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="14">
+      <c r="D36" s="23"/>
+      <c r="E36" s="14">
         <v>1.6929999999999999E-7</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F36" s="14">
         <v>2.3410000000000001E-7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+    <row r="37" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="13">
+        <v>20480</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="14">
+        <v>7.4709999999999999E-8</v>
+      </c>
+      <c r="F37" s="14">
+        <v>3.6469999999999998E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B38" s="25">
         <v>500</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C38" s="25">
         <v>0.75</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D38" s="18">
         <v>0</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E38" s="19">
         <v>2.023E-7</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F38" s="19">
         <v>2.1829999999999999E-7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="27">
+    <row r="39" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="18">
         <v>35</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E39" s="19">
         <v>3.2819999999999999E-7</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F39" s="19">
         <v>2.199E-7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="27">
+    <row r="40" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="18">
         <v>70</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E40" s="19">
         <v>1.057E-7</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F40" s="19">
         <v>2.198E-7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="31">
+    <row r="41" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="21">
         <v>0.7</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D41" s="25">
         <v>35</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E41" s="19">
         <v>1.522E-7</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F41" s="19">
         <v>2.178E-7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="31">
+    <row r="42" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="21">
         <v>0.65</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="28">
+      <c r="D42" s="26"/>
+      <c r="E42" s="19">
         <v>1.5510000000000001E-7</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F42" s="19">
         <v>2.125E-7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="31">
+    <row r="43" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="21">
         <v>0.6</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="28">
+      <c r="D43" s="26"/>
+      <c r="E43" s="19">
         <v>6.0399999999999998E-8</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F43" s="19">
         <v>2.128E-7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="31">
+    <row r="44" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="21">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="28">
+      <c r="D44" s="26"/>
+      <c r="E44" s="19">
         <v>1.098E-7</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F44" s="19">
         <v>2.1650000000000001E-7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="31">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="21">
         <v>0.5</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="28">
+      <c r="D45" s="26"/>
+      <c r="E45" s="19">
         <v>9.8490000000000004E-8</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F45" s="19">
         <v>2.4089999999999999E-7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="31">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="21">
         <v>0.45</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="28">
+      <c r="D46" s="26"/>
+      <c r="E46" s="19">
         <v>3.3010000000000002E-8</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F46" s="19">
         <v>3.3770000000000001E-7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="21">
         <v>0.4</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="28">
+      <c r="D47" s="26"/>
+      <c r="E47" s="19">
         <v>4.3000000000000001E-8</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F47" s="19">
         <v>7.5840000000000001E-7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="27">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+      <c r="B48" s="18">
         <v>4000</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C48" s="18">
         <v>0.75</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="28">
+      <c r="D48" s="26"/>
+      <c r="E48" s="19">
         <v>2.206E-7</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F48" s="19">
         <v>2.2249999999999999E-7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="18">
+        <v>20480</v>
+      </c>
+      <c r="C49" s="18">
+        <v>0.45</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="19">
+        <v>7.0830000000000006E-8</v>
+      </c>
+      <c r="F49" s="19">
+        <v>3.3879999999999999E-7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B50" s="28">
         <v>500</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C50" s="28">
         <v>0.75</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D50" s="3">
         <v>0</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E50" s="4">
         <v>1.001E-7</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F50" s="4">
         <v>2.3309999999999999E-7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="3">
         <v>35</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E51" s="4">
         <v>1.044E-7</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F51" s="4">
         <v>2.346E-7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="3">
         <v>70</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E52" s="4">
         <v>1.0949999999999999E-7</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F52" s="4">
         <v>2.3629999999999999E-7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="11">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="11">
         <v>0.7</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D53" s="28">
         <v>35</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E53" s="4">
         <v>8.7680000000000002E-8</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F53" s="4">
         <v>2.3239999999999999E-7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="11">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="11">
         <v>0.65</v>
       </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="4">
+      <c r="D54" s="29"/>
+      <c r="E54" s="4">
         <v>7.5020000000000006E-8</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F54" s="4">
         <v>2.3099999999999999E-7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="11">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="11">
         <v>0.6</v>
       </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="4">
+      <c r="D55" s="29"/>
+      <c r="E55" s="4">
         <v>6.3969999999999996E-8</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F55" s="4">
         <v>2.2999999999999999E-7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="11">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="4">
+      <c r="D56" s="29"/>
+      <c r="E56" s="4">
         <v>5.4179999999999999E-8</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F56" s="4">
         <v>2.3169999999999999E-7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="11">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="11">
         <v>0.5</v>
       </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="4">
+      <c r="D57" s="29"/>
+      <c r="E57" s="4">
         <v>4.3859999999999997E-8</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F57" s="4">
         <v>2.5349999999999999E-7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="11">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="11">
         <v>0.45</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="4">
+      <c r="D58" s="29"/>
+      <c r="E58" s="4">
         <v>3.7009999999999999E-8</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F58" s="4">
         <v>3.5349999999999998E-7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="11">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="29"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="11">
         <v>0.4</v>
       </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="4">
+      <c r="D59" s="29"/>
+      <c r="E59" s="4">
         <v>3.0990000000000002E-8</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F59" s="4">
         <v>7.7400000000000002E-7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="29"/>
+      <c r="B60" s="3">
         <v>4000</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C60" s="3">
         <v>0.75</v>
       </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="4">
+      <c r="D60" s="29"/>
+      <c r="E60" s="4">
         <v>2.2499999999999999E-7</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F60" s="4">
         <v>2.3839999999999999E-7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="3">
+        <v>20480</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="4">
+        <v>8.266E-8</v>
+      </c>
+      <c r="F61" s="4">
+        <v>3.6129999999999999E-7</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="A62" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="22">
+        <v>500</v>
+      </c>
+      <c r="C62" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D62" s="13">
+        <v>0</v>
+      </c>
+      <c r="E62" s="14">
+        <v>2.4289999999999998E-7</v>
+      </c>
+      <c r="F62" s="14">
+        <v>2.2849999999999999E-7</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="13">
+        <v>35</v>
+      </c>
+      <c r="E63" s="14">
+        <v>4.9849999999999997E-7</v>
+      </c>
+      <c r="F63" s="14">
+        <v>2.283E-7</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="13">
+        <v>70</v>
+      </c>
+      <c r="E64" s="14">
+        <v>9.8660000000000001E-7</v>
+      </c>
+      <c r="F64" s="14">
+        <v>2.3099999999999999E-7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="D65" s="22">
+        <v>35</v>
+      </c>
+      <c r="E65" s="14">
+        <v>2.614E-7</v>
+      </c>
+      <c r="F65" s="14">
+        <v>2.269E-7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="D66" s="23"/>
+      <c r="E66" s="14">
+        <v>1.4600000000000001E-7</v>
+      </c>
+      <c r="F66" s="14">
+        <v>2.251E-7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D67" s="23"/>
+      <c r="E67" s="14">
+        <v>5.9190000000000003E-8</v>
+      </c>
+      <c r="F67" s="14">
+        <v>2.23E-7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D68" s="23"/>
+      <c r="E68" s="14">
+        <v>6.4990000000000002E-8</v>
+      </c>
+      <c r="F68" s="14">
+        <v>2.2670000000000001E-7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D69" s="23"/>
+      <c r="E69" s="14">
+        <v>3.4550000000000002E-8</v>
+      </c>
+      <c r="F69" s="14">
+        <v>2.4120000000000002E-7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="D70" s="23"/>
+      <c r="E70" s="14">
+        <v>3.3880000000000003E-8</v>
+      </c>
+      <c r="F70" s="14">
+        <v>3.4429999999999998E-7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="23"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="D71" s="23"/>
+      <c r="E71" s="14">
+        <v>3.8789999999999999E-8</v>
+      </c>
+      <c r="F71" s="14">
+        <v>7.7130000000000003E-7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
+      <c r="B72" s="13">
+        <v>4000</v>
+      </c>
+      <c r="C72" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D72" s="23"/>
+      <c r="E72" s="14">
+        <v>2.1500000000000001E-7</v>
+      </c>
+      <c r="F72" s="14">
+        <v>2.343E-7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73" s="13">
+        <v>20480</v>
+      </c>
+      <c r="C73" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="14">
+        <v>6.8820000000000003E-8</v>
+      </c>
+      <c r="F73" s="14">
+        <v>3.4359999999999998E-7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
@@ -1799,28 +2009,52 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
+    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="D49:D56"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="B46:B55"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="B13:B22"/>
+  <mergeCells count="24">
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="D65:D73"/>
+    <mergeCell ref="A62:A73"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="B14:B23"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="B50:B59"/>
+    <mergeCell ref="A38:A48"/>
+    <mergeCell ref="A50:A61"/>
+    <mergeCell ref="D53:D61"/>
+    <mergeCell ref="D41:D49"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="D17:D25"/>
+    <mergeCell ref="D5:D13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
